--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\word\智慧园区\doc\02_设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="310">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2254,6 +2250,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2278,6 +2275,37 @@
       </rPr>
       <t>reateUser</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID_</t>
+  </si>
+  <si>
+    <t>sp_lettermanager_comment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱玉良</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2493,7 +2521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2599,16 +2627,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,7 +2661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2627,11 +2670,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2639,34 +2695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3009,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D104" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -3032,18 +3061,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="45">
@@ -3114,10 +3143,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3132,7 +3161,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="47" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3146,8 +3175,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="42"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3160,7 +3189,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3172,10 +3201,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3190,7 +3219,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="47" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3204,8 +3233,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="42"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3218,7 +3247,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3230,10 +3259,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3248,7 +3277,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="48" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3262,8 +3291,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="42"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3276,7 +3305,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3407,10 +3436,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="42">
+      <c r="A14" s="44">
         <v>320601</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3425,7 +3454,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="44" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3439,8 +3468,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3453,7 +3482,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3497,10 +3526,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="41">
+      <c r="A17" s="48">
         <v>340101</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3515,7 +3544,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="48" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3529,8 +3558,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3543,7 +3572,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3555,10 +3584,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51">
+      <c r="A19" s="49">
         <v>330403</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3587,8 +3616,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="59"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3615,8 +3644,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="59"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -3832,10 +3861,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="42">
+      <c r="A28" s="44">
         <v>330801</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3850,7 +3879,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3864,8 +3893,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3878,7 +3907,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3908,7 +3937,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -3938,7 +3967,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -3950,10 +3979,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="42">
+      <c r="A32" s="44">
         <v>320103</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3968,7 +3997,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="42"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -3980,8 +4009,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -3994,7 +4023,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="42"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4178,10 +4207,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="42">
+      <c r="A42" s="44">
         <v>330101</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4195,8 +4224,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4208,8 +4237,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4221,8 +4250,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4234,10 +4263,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="51">
+      <c r="A46" s="49">
         <v>330204</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4263,8 +4292,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4317,10 +4346,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="42">
+      <c r="A49" s="44">
         <v>320104</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="44" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4335,7 +4364,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4349,8 +4378,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4363,7 +4392,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="42"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4439,10 +4468,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="51">
+      <c r="A53" s="49">
         <v>330403</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4471,8 +4500,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="59"/>
-      <c r="B54" s="53"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4499,8 +4528,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="59"/>
-      <c r="B55" s="53"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4745,10 +4774,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="45">
+      <c r="A63" s="51">
         <v>330206</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="46" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4777,8 +4806,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="46"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -4805,8 +4834,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="46"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -4993,10 +5022,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="51">
+      <c r="A71" s="49">
         <v>330204</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5025,8 +5054,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5362,10 +5391,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="42">
+      <c r="A85" s="44">
         <v>330101</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="51" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5388,8 +5417,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="55"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5410,8 +5439,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="55"/>
-      <c r="B87" s="46"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5432,8 +5461,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5508,10 +5537,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="56">
+      <c r="A91" s="61">
         <v>330503</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="51" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5534,8 +5563,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="57"/>
-      <c r="B92" s="46"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5556,8 +5585,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="57"/>
-      <c r="B93" s="46"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5578,8 +5607,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="57"/>
-      <c r="B94" s="46"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5600,10 +5629,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="45">
+      <c r="A95" s="51">
         <v>330506</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="51" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5626,8 +5655,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5755,10 +5784,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="48">
+      <c r="A101" s="53">
         <v>330101</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="53" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5781,8 +5810,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="49"/>
-      <c r="B102" s="49"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -5803,8 +5832,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -5877,10 +5906,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="43">
+      <c r="A106" s="56">
         <v>320604</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="56" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5895,7 +5924,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G106" s="56" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -5903,8 +5932,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -5917,14 +5946,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="44"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -5937,14 +5966,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="44"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="58"/>
-      <c r="B109" s="44"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -5957,7 +5986,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="44"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6047,10 +6076,10 @@
       <c r="B113" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="63" t="s">
+      <c r="C113" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D113" s="63" t="s">
+      <c r="D113" s="41" t="s">
         <v>303</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -6065,43 +6094,35 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
       <c r="J113" s="26"/>
-      <c r="K113" s="64" t="s">
+      <c r="K113" s="42" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>330601</v>
+      </c>
+      <c r="B114" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E114" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="F114" s="1">
+        <v>36</v>
+      </c>
+      <c r="G114" s="65" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G49:G50"/>
@@ -6118,6 +6139,37 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5670" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2712" windowWidth="19140" windowHeight="5676" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="311">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2307,6 +2306,9 @@
   <si>
     <t>朱玉良</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_DATE_</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +2523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2631,28 +2633,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2661,6 +2655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2670,24 +2665,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2695,7 +2677,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3038,44 +3043,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="46.8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3143,10 +3148,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3161,7 +3166,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="66" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3175,8 +3180,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3189,7 +3194,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3201,10 +3206,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3219,7 +3224,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="66" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3233,8 +3238,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3252,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3259,10 +3264,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3277,7 +3282,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="45" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3291,8 +3296,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3305,7 +3310,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3436,10 +3441,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="44">
+      <c r="A14" s="46">
         <v>320601</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="46" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3454,7 +3459,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3468,8 +3473,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3526,10 +3531,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="48">
+      <c r="A17" s="45">
         <v>340101</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3544,7 +3549,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="45" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3558,8 +3563,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="48"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3584,10 +3589,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49">
+      <c r="A19" s="55">
         <v>330403</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="56" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3616,8 +3621,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3644,8 +3649,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="50"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -3861,10 +3866,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="44">
+      <c r="A28" s="46">
         <v>330801</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="46" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3879,7 +3884,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="46" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3893,8 +3898,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3907,7 +3912,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3937,7 +3942,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -3967,7 +3972,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -3979,10 +3984,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="44">
+      <c r="A32" s="46">
         <v>320103</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3997,7 +4002,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4009,8 +4014,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4023,7 +4028,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4207,10 +4212,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="44">
+      <c r="A42" s="46">
         <v>330101</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="46" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4224,8 +4229,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4237,8 +4242,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4250,8 +4255,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4263,10 +4268,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="49">
+      <c r="A46" s="55">
         <v>330204</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4292,8 +4297,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4346,10 +4351,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="44">
+      <c r="A49" s="46">
         <v>320104</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="46" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4364,7 +4369,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="46" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4378,8 +4383,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4392,7 +4397,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="44"/>
+      <c r="G50" s="46"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4468,10 +4473,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="49">
+      <c r="A53" s="55">
         <v>330403</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="56" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4500,8 +4505,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="50"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4528,8 +4533,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="50"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4774,10 +4779,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="51">
+      <c r="A63" s="49">
         <v>330206</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4806,8 +4811,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="52"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -4834,8 +4839,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="52"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5022,10 +5027,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="49">
+      <c r="A71" s="55">
         <v>330204</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5054,8 +5059,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5391,10 +5396,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="44">
+      <c r="A85" s="46">
         <v>330101</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5418,7 +5423,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="59"/>
-      <c r="B86" s="52"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5440,7 +5445,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="59"/>
-      <c r="B87" s="52"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5461,8 +5466,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5537,10 +5542,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="61">
+      <c r="A91" s="60">
         <v>330503</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="49" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5563,8 +5568,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="62"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5585,8 +5590,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="62"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5607,8 +5612,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="62"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5629,10 +5634,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="51">
+      <c r="A95" s="49">
         <v>330506</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="49" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5655,8 +5660,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5784,10 +5789,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="53">
+      <c r="A101" s="52">
         <v>330101</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="52" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5810,8 +5815,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -5832,8 +5837,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -5906,10 +5911,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="56">
+      <c r="A106" s="47">
         <v>320604</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="47" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5924,7 +5929,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="56" t="s">
+      <c r="G106" s="47" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -5932,8 +5937,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -5946,14 +5951,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="57"/>
+      <c r="G107" s="48"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -5966,14 +5971,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="57"/>
+      <c r="G108" s="48"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="58"/>
-      <c r="B109" s="57"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -5986,7 +5991,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="57"/>
+      <c r="G109" s="48"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6102,7 +6107,7 @@
       <c r="A114" s="1">
         <v>330601</v>
       </c>
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="44" t="s">
         <v>306</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -6111,18 +6116,73 @@
       <c r="D114" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="E114" s="65" t="s">
+      <c r="E114" s="44" t="s">
         <v>308</v>
       </c>
       <c r="F114" s="1">
         <v>36</v>
       </c>
-      <c r="G114" s="65" t="s">
+      <c r="G114" s="44" t="s">
         <v>309</v>
       </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>320701</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H115" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G49:G50"/>
@@ -6139,37 +6199,6 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\smartPark\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2712" windowWidth="19140" windowHeight="5676" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="315">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2309,6 +2314,64 @@
   </si>
   <si>
     <t>JOIN_DATE_</t>
+  </si>
+  <si>
+    <r>
+      <t>VISITE_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VISITE_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>来访姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2523,7 +2586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2637,16 +2700,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2655,7 +2733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2665,11 +2742,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2677,29 +2767,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3043,44 +3112,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="D103" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116:J117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.09765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3148,10 +3217,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3166,7 +3235,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3180,8 +3249,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="46"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3194,7 +3263,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3206,10 +3275,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3224,7 +3293,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3238,8 +3307,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="46"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3321,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3264,10 +3333,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3282,7 +3351,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3296,8 +3365,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="46"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3379,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3441,10 +3510,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="46">
+      <c r="A14" s="47">
         <v>320601</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3459,7 +3528,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3473,8 +3542,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3487,7 +3556,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3531,10 +3600,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="45">
+      <c r="A17" s="51">
         <v>340101</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3549,7 +3618,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="51" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3563,8 +3632,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3646,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3589,10 +3658,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>330403</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3621,8 +3690,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="63"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3649,8 +3718,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="63"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -3866,10 +3935,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="46">
+      <c r="A28" s="47">
         <v>330801</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3884,7 +3953,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="47" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3898,8 +3967,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3912,7 +3981,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3942,7 +4011,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -3972,7 +4041,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="46"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -3984,10 +4053,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="46">
+      <c r="A32" s="47">
         <v>320103</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4002,7 +4071,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4014,8 +4083,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4028,7 +4097,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4212,10 +4281,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="46">
+      <c r="A42" s="47">
         <v>330101</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4229,8 +4298,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4242,8 +4311,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4255,8 +4324,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4268,10 +4337,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="55">
+      <c r="A46" s="52">
         <v>330204</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="52" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4297,8 +4366,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4351,10 +4420,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="46">
+      <c r="A49" s="47">
         <v>320104</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="47" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4369,7 +4438,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="47" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4383,8 +4452,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4397,7 +4466,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="46"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4473,10 +4542,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55">
+      <c r="A53" s="52">
         <v>330403</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4505,8 +4574,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="63"/>
-      <c r="B54" s="57"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4533,8 +4602,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="63"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4779,10 +4848,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="49">
+      <c r="A63" s="54">
         <v>330206</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="49" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4811,8 +4880,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="50"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -4839,8 +4908,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="50"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5027,10 +5096,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="55">
+      <c r="A71" s="52">
         <v>330204</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="52" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5059,8 +5128,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5396,10 +5465,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="46">
+      <c r="A85" s="47">
         <v>330101</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="54" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5422,8 +5491,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="59"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5444,8 +5513,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="59"/>
-      <c r="B87" s="50"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5466,8 +5535,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5542,10 +5611,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="60">
+      <c r="A91" s="64">
         <v>330503</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="54" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5568,8 +5637,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="61"/>
-      <c r="B92" s="50"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5590,8 +5659,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="61"/>
-      <c r="B93" s="50"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5612,8 +5681,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="61"/>
-      <c r="B94" s="50"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5634,10 +5703,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="49">
+      <c r="A95" s="54">
         <v>330506</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="54" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5660,8 +5729,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5789,10 +5858,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="52">
+      <c r="A101" s="56">
         <v>330101</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5815,8 +5884,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -5837,8 +5906,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -5911,10 +5980,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="47">
+      <c r="A106" s="59">
         <v>320604</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="59" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5929,7 +5998,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="47" t="s">
+      <c r="G106" s="59" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -5937,8 +6006,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="48"/>
-      <c r="B107" s="48"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -5951,14 +6020,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="48"/>
+      <c r="G107" s="60"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="48"/>
-      <c r="B108" s="48"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -5971,14 +6040,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="48"/>
+      <c r="G108" s="60"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="62"/>
-      <c r="B109" s="48"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -5991,7 +6060,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="48"/>
+      <c r="G109" s="60"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6150,39 +6219,57 @@
       </c>
       <c r="H115" s="43"/>
     </row>
+    <row r="116" spans="1:11" ht="21" customHeight="1">
+      <c r="A116" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="16">
+        <v>32</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="25"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="47"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="D117" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E117" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="16">
+        <v>32</v>
+      </c>
+      <c r="G117" s="50"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
+  <mergeCells count="50">
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="G116:G117"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G49:G50"/>
@@ -6199,6 +6286,37 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\smartPark\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5670" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2720" windowWidth="19140" windowHeight="5680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="320">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -70,7 +65,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>执行S</t>
@@ -80,7 +74,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>QL</t>
@@ -101,7 +94,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330101</t>
@@ -113,7 +105,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -123,7 +114,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterbusinessmanager_rz</t>
@@ -162,7 +152,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330901</t>
@@ -183,7 +172,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_reservation_record</t>
@@ -225,7 +213,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>320104</t>
@@ -246,7 +233,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_room_</t>
@@ -285,7 +271,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330701</t>
@@ -306,7 +291,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_apply</t>
@@ -345,7 +329,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_applyList</t>
@@ -375,7 +358,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330704</t>
@@ -396,7 +378,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_comment</t>
@@ -426,7 +407,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>320301</t>
@@ -447,7 +427,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_purchasingManager_commodity</t>
@@ -477,7 +456,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_entrec</t>
@@ -498,7 +476,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ENTERREC_STATUS_</t>
@@ -561,7 +538,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -571,7 +547,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>p_enterprise_role</t>
@@ -589,7 +564,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -599,7 +573,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>char</t>
@@ -617,7 +590,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>企业员工I</t>
@@ -627,7 +599,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -639,7 +610,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -649,7 +619,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_R_ID_</t>
@@ -661,7 +630,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>角色I</t>
@@ -671,7 +639,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -725,7 +692,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>商品I</t>
@@ -735,7 +701,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -813,7 +778,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -823,7 +787,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_building_</t>
@@ -844,7 +807,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PARK_ID_</t>
@@ -871,7 +833,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_building_</t>
@@ -892,7 +853,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>COMPANY_</t>
@@ -913,7 +873,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_floor_</t>
@@ -934,7 +893,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>BUILDING_ID_</t>
@@ -955,7 +913,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>FLOOR_ID_</t>
@@ -967,7 +924,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -977,7 +933,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_room_</t>
@@ -998,7 +953,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B_ENTERED_ENT_</t>
@@ -1019,7 +973,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B_FLOOR_</t>
@@ -1040,7 +993,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterprise_employees</t>
@@ -1061,7 +1013,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EMPLOYEES_COM_ID</t>
@@ -1082,7 +1033,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterbusinessmanager_rz</t>
@@ -1112,7 +1062,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RZ_MEM_</t>
@@ -1172,7 +1121,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>BIND_STATUS</t>
@@ -1182,7 +1130,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1215,7 +1162,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -1225,7 +1171,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>archar</t>
@@ -1258,7 +1203,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_member_information</t>
@@ -1279,7 +1223,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>M_LEVEL_</t>
@@ -1303,7 +1246,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>DIS_RATE_</t>
@@ -1330,7 +1272,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PARENT_MEMBER_ID_</t>
@@ -1366,7 +1307,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1376,7 +1316,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ACK_TIME_</t>
@@ -1397,7 +1336,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>商户L</t>
@@ -1407,7 +1345,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OGO</t>
@@ -1434,7 +1371,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -1444,7 +1380,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PPLICATION_</t>
@@ -1454,7 +1389,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -1464,7 +1398,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ATE_</t>
@@ -1506,7 +1439,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_charge</t>
@@ -1527,7 +1459,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CHARGE_ISBOOL_</t>
@@ -1551,7 +1482,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_oc</t>
@@ -1575,7 +1505,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>申请时间</t>
@@ -1602,7 +1531,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_fkcode_</t>
@@ -1659,7 +1587,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1669,7 +1596,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_LOGO_</t>
@@ -1681,7 +1607,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>企业l</t>
@@ -1691,7 +1616,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ogo</t>
@@ -1703,7 +1627,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1713,7 +1636,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_TYPE_</t>
@@ -1728,7 +1650,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1738,7 +1659,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_PROPERTY_</t>
@@ -1753,7 +1673,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1763,7 +1682,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_URL_</t>
@@ -1787,7 +1705,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1797,7 +1714,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_IMAGE_</t>
@@ -1812,7 +1728,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1822,7 +1737,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_REMARK_</t>
@@ -1843,7 +1757,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1853,7 +1766,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_BUSINESS_</t>
@@ -1877,7 +1789,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -1887,7 +1798,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>nteger</t>
@@ -1899,7 +1809,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>P</t>
@@ -1909,7 +1818,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RODUCT_COLLECTION_COUNT_</t>
@@ -1927,7 +1835,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>J</t>
@@ -1937,7 +1844,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OIN_DATE_</t>
@@ -1958,7 +1864,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -1968,7 +1873,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ongtext</t>
@@ -1989,7 +1893,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -1999,7 +1902,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>har</t>
@@ -2019,7 +1921,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RECORD_</t>
@@ -2029,7 +1930,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PROJECT_</t>
@@ -2053,7 +1953,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -2063,7 +1962,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>TTENTION_COUNT_</t>
@@ -2081,7 +1979,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -2091,7 +1988,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CAN_COUNT_</t>
@@ -2106,7 +2002,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>FINANCING_</t>
@@ -2116,7 +2011,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>DESCRIBE</t>
@@ -2126,7 +2020,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2220,7 +2113,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RECORD_MEMBER_ID</t>
@@ -2244,7 +2136,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EMBERID</t>
@@ -2254,7 +2145,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2274,7 +2164,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>reateUser</t>
@@ -2301,7 +2190,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>archar</t>
@@ -2324,7 +2212,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>NAME</t>
@@ -2349,7 +2236,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>TEL</t>
@@ -2371,6 +2257,42 @@
   </si>
   <si>
     <t>联系电话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GB18030 Bitmap"/>
+        <family val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sp_propertyservicemanager_cos</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_REMARK_</t>
+  </si>
+  <si>
+    <t>拒绝理由</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱礼智</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2378,7 +2300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2446,25 +2368,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2692,27 +2599,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2721,10 +2625,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2733,6 +2637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2742,24 +2647,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2767,12 +2659,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
     <cellStyle name="普通 3" xfId="3"/>
     <cellStyle name="普通 4" xfId="2"/>
@@ -3112,44 +3019,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116:J117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" ht="47" customHeight="1">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="44">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="21">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3142,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3263,7 +3170,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3293,7 +3200,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3321,7 +3228,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3336,7 +3243,7 @@
       <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="60" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3351,7 +3258,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3366,7 +3273,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3379,7 +3286,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3422,7 +3329,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="21">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -3454,7 +3361,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="21">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -3486,7 +3393,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="21">
       <c r="A13" s="1">
         <v>330202</v>
       </c>
@@ -3600,7 +3507,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="51">
+      <c r="A17" s="50">
         <v>340101</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -3618,7 +3525,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3632,7 +3539,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="47"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
@@ -3646,7 +3553,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3658,10 +3565,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="52">
+      <c r="A19" s="59">
         <v>330403</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="60" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3690,8 +3597,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="53"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3718,8 +3625,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="53"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4137,7 +4044,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="21">
       <c r="A35" s="1">
         <v>320102</v>
       </c>
@@ -4160,7 +4067,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="21">
       <c r="A36" s="1">
         <v>320102</v>
       </c>
@@ -4180,7 +4087,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="21">
       <c r="A37" s="1">
         <v>320103</v>
       </c>
@@ -4200,7 +4107,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="21">
       <c r="A38" s="1">
         <v>320104</v>
       </c>
@@ -4220,7 +4127,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="21">
       <c r="A39" s="1">
         <v>320104</v>
       </c>
@@ -4240,7 +4147,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="21">
       <c r="A40" s="1">
         <v>320104</v>
       </c>
@@ -4260,7 +4167,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="21">
       <c r="A41" s="1">
         <v>330401</v>
       </c>
@@ -4280,7 +4187,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="21">
       <c r="A42" s="47">
         <v>330101</v>
       </c>
@@ -4297,7 +4204,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="21">
       <c r="A43" s="47"/>
       <c r="B43" s="47"/>
       <c r="C43" s="2" t="s">
@@ -4310,7 +4217,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="21">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="2" t="s">
@@ -4323,7 +4230,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="21">
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="2" t="s">
@@ -4337,10 +4244,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="52">
+      <c r="A46" s="59">
         <v>330204</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="59" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4366,8 +4273,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4542,10 +4449,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="52">
+      <c r="A53" s="59">
         <v>330403</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="60" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4574,8 +4481,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="53"/>
-      <c r="B54" s="66"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4602,8 +4509,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="53"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4693,7 +4600,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="21">
       <c r="A58" s="1">
         <v>320701</v>
       </c>
@@ -4725,7 +4632,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="21">
       <c r="A59" s="1">
         <v>320102</v>
       </c>
@@ -4754,7 +4661,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="21">
       <c r="A60" s="1">
         <v>320104</v>
       </c>
@@ -4783,7 +4690,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="21">
       <c r="A61" s="1">
         <v>320701</v>
       </c>
@@ -4848,10 +4755,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="54">
+      <c r="A63" s="53">
         <v>330206</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="60" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4880,8 +4787,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="55"/>
-      <c r="B64" s="67"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -4908,8 +4815,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="55"/>
-      <c r="B65" s="67"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5096,10 +5003,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="52">
+      <c r="A71" s="59">
         <v>330204</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="59" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5128,8 +5035,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5155,7 +5062,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="21">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -5181,7 +5088,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="21">
       <c r="A74" s="1">
         <v>330201</v>
       </c>
@@ -5207,7 +5114,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="21">
       <c r="A75" s="1">
         <v>330202</v>
       </c>
@@ -5233,7 +5140,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="21">
       <c r="A76" s="1">
         <v>330204</v>
       </c>
@@ -5259,7 +5166,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="21">
       <c r="A77" s="1">
         <v>330208</v>
       </c>
@@ -5285,7 +5192,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="21">
       <c r="A78" s="1">
         <v>330213</v>
       </c>
@@ -5363,7 +5270,7 @@
         <v>42444</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" ht="21">
       <c r="A81" s="1">
         <v>330201</v>
       </c>
@@ -5468,7 +5375,7 @@
       <c r="A85" s="47">
         <v>330101</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="53" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5491,8 +5398,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="62"/>
-      <c r="B86" s="55"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5513,8 +5420,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="62"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5535,8 +5442,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="63"/>
-      <c r="B88" s="63"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5614,7 +5521,7 @@
       <c r="A91" s="64">
         <v>330503</v>
       </c>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="53" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5638,7 +5545,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="65"/>
-      <c r="B92" s="55"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5660,7 +5567,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="65"/>
-      <c r="B93" s="55"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5682,7 +5589,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="65"/>
-      <c r="B94" s="55"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5703,10 +5610,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="54">
+      <c r="A95" s="53">
         <v>330506</v>
       </c>
-      <c r="B95" s="54" t="s">
+      <c r="B95" s="53" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5729,8 +5636,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5828,7 +5735,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" ht="21">
       <c r="A100" s="1">
         <v>330901</v>
       </c>
@@ -5980,10 +5887,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="59">
+      <c r="A106" s="51">
         <v>320604</v>
       </c>
-      <c r="B106" s="59" t="s">
+      <c r="B106" s="51" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5998,7 +5905,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="59" t="s">
+      <c r="G106" s="51" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6006,8 +5913,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6020,14 +5927,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="60"/>
+      <c r="G107" s="52"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6040,14 +5947,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="60"/>
+      <c r="G108" s="52"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="61"/>
-      <c r="B109" s="60"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6060,7 +5967,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="60"/>
+      <c r="G109" s="52"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6226,10 +6133,10 @@
       <c r="B116" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="68" t="s">
+      <c r="C116" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="D116" s="68" t="s">
+      <c r="D116" s="46" t="s">
         <v>313</v>
       </c>
       <c r="E116" s="45" t="s">
@@ -6238,7 +6145,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="50" t="s">
+      <c r="G116" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="17"/>
@@ -6248,10 +6155,10 @@
     <row r="117" spans="1:11">
       <c r="A117" s="47"/>
       <c r="B117" s="48"/>
-      <c r="C117" s="68" t="s">
+      <c r="C117" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="46" t="s">
         <v>314</v>
       </c>
       <c r="E117" s="45" t="s">
@@ -6260,13 +6167,70 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="50"/>
+      <c r="G117" s="49"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="25"/>
     </row>
+    <row r="118" spans="1:11" ht="21">
+      <c r="A118" s="1">
+        <v>330206</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F118" s="1">
+        <v>256</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -6283,44 +6247,10 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2720" windowWidth="19140" windowHeight="5680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="340">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2128,30 +2128,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EMBERID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>报修人</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2171,92 +2147,177 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBER_ID_</t>
+    <t>评论人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱玉良</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VISITE_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VISITE_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>来访姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝理由</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱礼智</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_CODE_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GB18030 Bitmap"/>
+        <family val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sp_reservation_record</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿sp_reservation_record</t>
+  </si>
+  <si>
+    <t>预约受理编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘雪娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EMBERID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sp_lettermanager_comment</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>评论人</t>
+    <t>MEMBER_ID_</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>archar</t>
-    </r>
+    <t>sp_member_information</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>朱玉良</t>
+    <t>JOIN_DATE_</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>JOIN_DATE_</t>
-  </si>
-  <si>
-    <r>
-      <t>VISITE_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NAME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>VISITE_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TEL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>来访姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
+    <t>BACK_REMARK_</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2281,18 +2342,53 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>BACK_REMARK_</t>
-  </si>
-  <si>
-    <t>拒绝理由</t>
+    <t>RECORD_COMMDITY_ID_</t>
+  </si>
+  <si>
+    <t>COMPANY_NAME_</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
+    <t>COMPANY_SCALE_</t>
+  </si>
+  <si>
+    <t>INCOMING_DATE_</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>朱礼智</t>
+    <t>COMPANY_DISCRPTION_</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约商品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司规模</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计入驻日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务简介</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcahr</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vhcar</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2300,7 +2396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2373,6 +2469,24 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2481,7 +2595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2492,8 +2606,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2603,9 +2795,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2613,45 +2802,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2659,26 +2872,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="30">
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
     <cellStyle name="普通 3" xfId="3"/>
@@ -3019,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124:H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -3042,18 +3263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="44">
@@ -3124,10 +3345,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3142,7 +3363,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="52" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3156,8 +3377,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3170,7 +3391,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3182,10 +3403,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3200,7 +3421,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="52" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3214,8 +3435,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3228,7 +3449,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3240,10 +3461,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3258,7 +3479,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="53" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3272,8 +3493,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="47"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3286,7 +3507,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3417,10 +3638,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="47">
+      <c r="A14" s="49">
         <v>320601</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3435,7 +3656,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3449,8 +3670,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3463,7 +3684,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3507,10 +3728,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="50">
+      <c r="A17" s="53">
         <v>340101</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3525,7 +3746,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="53" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3539,8 +3760,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="50"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3553,7 +3774,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3565,10 +3786,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="59">
+      <c r="A19" s="54">
         <v>330403</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3597,8 +3818,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="67"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3625,8 +3846,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="67"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -3842,10 +4063,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="47">
+      <c r="A28" s="49">
         <v>330801</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3860,7 +4081,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3874,8 +4095,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3888,7 +4109,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="47"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3918,7 +4139,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="47"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -3948,7 +4169,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="47"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -3960,10 +4181,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="47">
+      <c r="A32" s="49">
         <v>320103</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3978,7 +4199,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -3990,8 +4211,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4004,7 +4225,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4188,10 +4409,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="47">
+      <c r="A42" s="49">
         <v>330101</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4205,8 +4426,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4218,8 +4439,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4231,8 +4452,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4244,10 +4465,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="59">
+      <c r="A46" s="54">
         <v>330204</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4273,8 +4494,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4327,10 +4548,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="47">
+      <c r="A49" s="49">
         <v>320104</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4345,7 +4566,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4359,8 +4580,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4373,7 +4594,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4449,10 +4670,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="59">
+      <c r="A53" s="54">
         <v>330403</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4481,8 +4702,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="67"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4509,8 +4730,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="67"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4755,10 +4976,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="53">
+      <c r="A63" s="56">
         <v>330206</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="51" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4787,8 +5008,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="54"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -4815,8 +5036,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="54"/>
-      <c r="B65" s="62"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5003,10 +5224,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="59">
+      <c r="A71" s="54">
         <v>330204</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5035,8 +5256,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5372,10 +5593,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="47">
+      <c r="A85" s="49">
         <v>330101</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5398,8 +5619,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="63"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5420,8 +5641,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="63"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5442,8 +5663,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5518,10 +5739,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="64">
+      <c r="A91" s="60">
         <v>330503</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="56" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5544,8 +5765,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="65"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5566,8 +5787,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="65"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5588,8 +5809,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="65"/>
-      <c r="B94" s="54"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5610,10 +5831,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="53">
+      <c r="A95" s="56">
         <v>330506</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="56" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5636,8 +5857,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5765,10 +5986,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="56">
+      <c r="A101" s="62">
         <v>330101</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="62" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5791,8 +6012,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -5813,8 +6034,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -5887,10 +6108,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="51">
+      <c r="A106" s="65">
         <v>320604</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="65" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5905,7 +6126,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="51" t="s">
+      <c r="G106" s="65" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -5913,8 +6134,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="66"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -5927,14 +6148,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="52"/>
+      <c r="G107" s="66"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -5947,14 +6168,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="52"/>
+      <c r="G108" s="66"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="66"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="66"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -5967,7 +6188,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="52"/>
+      <c r="G109" s="66"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6057,11 +6278,11 @@
       <c r="B113" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113" s="41" t="s">
         <v>302</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>303</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>16</v>
@@ -6072,34 +6293,39 @@
       <c r="G113" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H113" s="38"/>
+      <c r="H113" s="47" t="s">
+        <v>296</v>
+      </c>
       <c r="I113" s="38"/>
       <c r="J113" s="26"/>
       <c r="K113" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>330601</v>
       </c>
-      <c r="B114" s="44" t="s">
-        <v>306</v>
+      <c r="B114" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" s="43" t="s">
         <v>305</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="E114" s="44" t="s">
-        <v>308</v>
       </c>
       <c r="F114" s="1">
         <v>36</v>
       </c>
-      <c r="G114" s="44" t="s">
-        <v>309</v>
+      <c r="G114" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="H114" s="47" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6107,10 +6333,10 @@
         <v>320701</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>256</v>
@@ -6124,51 +6350,57 @@
       <c r="G115" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H115" s="43"/>
+      <c r="H115" s="47" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="48" t="s">
-        <v>21</v>
+      <c r="B116" s="50" t="s">
+        <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="D116" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E116" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D116" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" s="44" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="49" t="s">
+      <c r="G116" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H116" s="17"/>
+      <c r="H116" s="47" t="s">
+        <v>296</v>
+      </c>
       <c r="I116" s="17"/>
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="47"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="E117" s="45" t="s">
+      <c r="A117" s="49"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="E117" s="44" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="49"/>
-      <c r="H117" s="17"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="47" t="s">
+        <v>296</v>
+      </c>
       <c r="I117" s="17"/>
       <c r="J117" s="25"/>
     </row>
@@ -6177,60 +6409,185 @@
         <v>330206</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F118" s="1">
         <v>256</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H118" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F119" s="1">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>319</v>
+      </c>
+      <c r="H119" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F120" s="1">
+        <v>36</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H120" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F121" s="1">
+        <v>256</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H121" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H122" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F123" s="1">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>330901</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -6247,6 +6604,40 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="349">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -65,6 +65,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>执行S</t>
@@ -74,6 +75,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>QL</t>
@@ -94,6 +96,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330101</t>
@@ -105,6 +108,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -114,6 +118,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterbusinessmanager_rz</t>
@@ -152,6 +157,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330901</t>
@@ -172,6 +178,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_reservation_record</t>
@@ -213,6 +220,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>320104</t>
@@ -233,6 +241,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_room_</t>
@@ -271,6 +280,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330701</t>
@@ -291,6 +301,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_apply</t>
@@ -329,6 +340,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_applyList</t>
@@ -358,6 +370,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>330704</t>
@@ -378,6 +391,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_activity_comment</t>
@@ -407,6 +421,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>320301</t>
@@ -427,6 +442,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_purchasingManager_commodity</t>
@@ -456,6 +472,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_entrec</t>
@@ -476,6 +493,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ENTERREC_STATUS_</t>
@@ -538,6 +556,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -547,6 +566,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>p_enterprise_role</t>
@@ -564,6 +584,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -573,6 +594,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>char</t>
@@ -590,6 +612,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>企业员工I</t>
@@ -599,6 +622,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -610,6 +634,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -619,6 +644,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_R_ID_</t>
@@ -630,6 +656,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>角色I</t>
@@ -639,6 +666,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -692,6 +720,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>商品I</t>
@@ -701,6 +730,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -778,6 +808,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -787,6 +818,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_building_</t>
@@ -807,6 +839,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PARK_ID_</t>
@@ -833,6 +866,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_building_</t>
@@ -853,6 +887,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>COMPANY_</t>
@@ -873,6 +908,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_floor_</t>
@@ -893,6 +929,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>BUILDING_ID_</t>
@@ -913,6 +950,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>FLOOR_ID_</t>
@@ -924,6 +962,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﻿</t>
@@ -933,6 +972,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_bbm_room_</t>
@@ -953,6 +993,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B_ENTERED_ENT_</t>
@@ -973,6 +1014,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B_FLOOR_</t>
@@ -993,6 +1035,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterprise_employees</t>
@@ -1013,6 +1056,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EMPLOYEES_COM_ID</t>
@@ -1033,6 +1077,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_enterbusinessmanager_rz</t>
@@ -1062,6 +1107,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RZ_MEM_</t>
@@ -1121,6 +1167,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>BIND_STATUS</t>
@@ -1130,6 +1177,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1162,6 +1210,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -1171,6 +1220,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>archar</t>
@@ -1203,6 +1253,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_member_information</t>
@@ -1223,6 +1274,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>M_LEVEL_</t>
@@ -1246,6 +1298,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>DIS_RATE_</t>
@@ -1272,6 +1325,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PARENT_MEMBER_ID_</t>
@@ -1307,6 +1361,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1316,6 +1371,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ACK_TIME_</t>
@@ -1336,6 +1392,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>商户L</t>
@@ -1345,6 +1402,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OGO</t>
@@ -1371,6 +1429,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -1380,6 +1439,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PPLICATION_</t>
@@ -1389,6 +1449,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -1398,6 +1459,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ATE_</t>
@@ -1439,6 +1501,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_charge</t>
@@ -1459,6 +1522,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CHARGE_ISBOOL_</t>
@@ -1482,6 +1546,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_oc</t>
@@ -1505,6 +1570,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>申请时间</t>
@@ -1531,6 +1597,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_fkcode_</t>
@@ -1587,6 +1654,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1596,6 +1664,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_LOGO_</t>
@@ -1607,6 +1676,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>企业l</t>
@@ -1616,6 +1686,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ogo</t>
@@ -1627,6 +1698,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1636,6 +1708,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_TYPE_</t>
@@ -1650,6 +1723,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1659,6 +1733,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_PROPERTY_</t>
@@ -1673,6 +1748,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1682,6 +1758,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Z_URL_</t>
@@ -1705,6 +1782,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1714,6 +1792,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_IMAGE_</t>
@@ -1728,6 +1807,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1737,6 +1817,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_REMARK_</t>
@@ -1757,6 +1838,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -1766,6 +1848,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EGAL_BUSINESS_</t>
@@ -1789,6 +1872,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -1798,6 +1882,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>nteger</t>
@@ -1809,6 +1894,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>P</t>
@@ -1818,6 +1904,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RODUCT_COLLECTION_COUNT_</t>
@@ -1835,6 +1922,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>J</t>
@@ -1844,6 +1932,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OIN_DATE_</t>
@@ -1864,6 +1953,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -1873,6 +1963,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ongtext</t>
@@ -1893,6 +1984,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -1902,6 +1994,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>har</t>
@@ -1921,6 +2014,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RECORD_</t>
@@ -1930,6 +2024,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PROJECT_</t>
@@ -1953,6 +2048,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -1962,6 +2058,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>TTENTION_COUNT_</t>
@@ -1979,6 +2076,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -1988,6 +2086,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CAN_COUNT_</t>
@@ -2002,6 +2101,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>FINANCING_</t>
@@ -2011,6 +2111,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>DESCRIBE</t>
@@ -2020,6 +2121,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2113,6 +2215,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RECORD_MEMBER_ID</t>
@@ -2140,6 +2243,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>reateUser</t>
@@ -2159,6 +2263,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>archar</t>
@@ -2178,6 +2283,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>NAME</t>
@@ -2187,6 +2293,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2202,6 +2309,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>TEL</t>
@@ -2211,6 +2319,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2255,6 +2364,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_reservation_record</t>
@@ -2285,6 +2395,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EMBERID</t>
@@ -2294,6 +2405,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -2335,6 +2447,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>sp_propertyservicemanager_cos</t>
@@ -2388,7 +2501,88 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>vhcar</t>
+    <t>sp_OrderManager_userOrder</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_STATUS_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AY_CODE_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛高飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AY_RETURN_CODE_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付返回订单号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2396,7 +2590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2487,6 +2681,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2685,7 +2894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2808,72 +3017,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
@@ -2887,23 +3100,22 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
     <cellStyle name="普通 3" xfId="3"/>
     <cellStyle name="普通 4" xfId="2"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3240,44 +3452,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124:H124"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:11" ht="47.1" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="44">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3312,7 +3524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -3345,10 +3557,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3363,7 +3575,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3377,8 +3589,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3391,7 +3603,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3403,10 +3615,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3421,7 +3633,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3435,8 +3647,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3449,7 +3661,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3461,10 +3673,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3479,7 +3691,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3493,8 +3705,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3719,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3550,7 +3762,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -3582,7 +3794,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -3614,7 +3826,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>330202</v>
       </c>
@@ -3638,10 +3850,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>320601</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3656,7 +3868,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3670,8 +3882,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3684,7 +3896,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3728,10 +3940,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="53">
+      <c r="A17" s="51">
         <v>340101</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3746,7 +3958,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="51" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3760,8 +3972,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="53"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3774,7 +3986,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3786,10 +3998,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="54">
+      <c r="A19" s="60">
         <v>330403</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="61" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3818,8 +4030,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="55"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -3846,8 +4058,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="55"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4063,10 +4275,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="49">
+      <c r="A28" s="48">
         <v>330801</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4081,7 +4293,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="48" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4095,8 +4307,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4109,7 +4321,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4139,7 +4351,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4169,7 +4381,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4181,10 +4393,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>320103</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4199,7 +4411,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4211,8 +4423,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4225,7 +4437,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4265,7 +4477,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="21">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>320102</v>
       </c>
@@ -4288,7 +4500,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="21">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>320102</v>
       </c>
@@ -4308,7 +4520,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>320103</v>
       </c>
@@ -4328,7 +4540,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="21">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>320104</v>
       </c>
@@ -4348,7 +4560,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>320104</v>
       </c>
@@ -4368,7 +4580,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="21">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>320104</v>
       </c>
@@ -4388,7 +4600,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="21">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>330401</v>
       </c>
@@ -4408,11 +4620,11 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="49">
+    <row r="42" spans="1:10">
+      <c r="A42" s="48">
         <v>330101</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4425,9 +4637,9 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+    <row r="43" spans="1:10">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4438,9 +4650,9 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+    <row r="44" spans="1:10">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4451,9 +4663,9 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+    <row r="45" spans="1:10">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4465,10 +4677,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="54">
+      <c r="A46" s="60">
         <v>330204</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="60" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4494,8 +4706,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4548,10 +4760,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="49">
+      <c r="A49" s="48">
         <v>320104</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="48" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4566,7 +4778,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="48" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4580,8 +4792,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4594,7 +4806,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4670,10 +4882,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="54">
+      <c r="A53" s="60">
         <v>330403</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="61" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4702,8 +4914,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="55"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4730,8 +4942,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="55"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -4821,7 +5033,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>320701</v>
       </c>
@@ -4853,7 +5065,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>320102</v>
       </c>
@@ -4882,7 +5094,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>320104</v>
       </c>
@@ -4911,7 +5123,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>320701</v>
       </c>
@@ -4976,10 +5188,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="56">
+      <c r="A63" s="54">
         <v>330206</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="61" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5008,8 +5220,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="57"/>
-      <c r="B64" s="69"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5036,8 +5248,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="57"/>
-      <c r="B65" s="69"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5224,10 +5436,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="54">
+      <c r="A71" s="60">
         <v>330204</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="60" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5256,8 +5468,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5283,7 +5495,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -5309,7 +5521,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>330201</v>
       </c>
@@ -5335,7 +5547,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="21">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>330202</v>
       </c>
@@ -5361,7 +5573,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="21">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>330204</v>
       </c>
@@ -5387,7 +5599,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="21">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>330208</v>
       </c>
@@ -5413,7 +5625,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="21">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>330213</v>
       </c>
@@ -5491,7 +5703,7 @@
         <v>42444</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="21">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>330201</v>
       </c>
@@ -5593,10 +5805,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="49">
+      <c r="A85" s="48">
         <v>330101</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="54" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5619,8 +5831,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="58"/>
-      <c r="B86" s="57"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5641,8 +5853,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="58"/>
-      <c r="B87" s="57"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5663,8 +5875,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5739,10 +5951,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="60">
+      <c r="A91" s="65">
         <v>330503</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="54" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5765,8 +5977,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="61"/>
-      <c r="B92" s="57"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5787,8 +5999,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="61"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -5809,8 +6021,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="61"/>
-      <c r="B94" s="57"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -5831,10 +6043,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="56">
+      <c r="A95" s="54">
         <v>330506</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="54" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5857,8 +6069,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="57"/>
-      <c r="B96" s="57"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5956,7 +6168,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21">
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>330901</v>
       </c>
@@ -5986,10 +6198,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="62">
+      <c r="A101" s="57">
         <v>330101</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6012,8 +6224,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="63"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6034,8 +6246,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6108,10 +6320,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="65">
+      <c r="A106" s="52">
         <v>320604</v>
       </c>
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="52" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6126,7 +6338,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="65" t="s">
+      <c r="G106" s="52" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6134,8 +6346,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6148,14 +6360,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="66"/>
+      <c r="G107" s="53"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6168,14 +6380,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="66"/>
+      <c r="G108" s="53"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="67"/>
-      <c r="B109" s="66"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6188,7 +6400,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="66"/>
+      <c r="G109" s="53"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6355,10 +6567,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="49" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6373,7 +6585,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="52" t="s">
+      <c r="G116" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6383,8 +6595,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="49"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6397,14 +6609,14 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="52"/>
+      <c r="G117" s="50"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="25"/>
     </row>
-    <row r="118" spans="1:11" ht="21">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>330206</v>
       </c>
@@ -6574,7 +6786,7 @@
         <v>336</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F124" s="1">
         <v>1024</v>
@@ -6586,8 +6798,120 @@
         <v>296</v>
       </c>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>320401</v>
+      </c>
+      <c r="B125" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+      <c r="G125" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H125" s="70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>320401</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F126" s="1">
+        <v>32</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" s="70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>320401</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F127" s="1">
+        <v>32</v>
+      </c>
+      <c r="G127" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H127" s="70" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -6604,44 +6928,10 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="347">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2523,6 +2524,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_STATUS_</t>
@@ -2535,26 +2537,6 @@
   </si>
   <si>
     <t>char</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AY_CODE_</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付订单号</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -3017,72 +2999,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3454,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="C126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -3475,18 +3457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="45">
@@ -3557,10 +3539,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3575,7 +3557,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3589,8 +3571,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3603,7 +3585,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3615,10 +3597,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3633,7 +3615,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3647,8 +3629,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3661,7 +3643,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3673,10 +3655,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3691,7 +3673,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3705,8 +3687,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="48"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3719,7 +3701,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3850,10 +3832,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="48">
+      <c r="A14" s="50">
         <v>320601</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3868,7 +3850,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3882,8 +3864,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3896,7 +3878,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3940,10 +3922,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="51">
+      <c r="A17" s="54">
         <v>340101</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3958,7 +3940,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3972,8 +3954,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3986,7 +3968,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3998,10 +3980,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="60">
+      <c r="A19" s="55">
         <v>330403</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4030,8 +4012,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="68"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4058,8 +4040,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="68"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4275,10 +4257,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="48">
+      <c r="A28" s="50">
         <v>330801</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4293,7 +4275,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4307,8 +4289,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4321,7 +4303,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4351,7 +4333,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4381,7 +4363,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4393,10 +4375,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="48">
+      <c r="A32" s="50">
         <v>320103</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4411,7 +4393,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4423,8 +4405,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4437,7 +4419,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4621,10 +4603,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="48">
+      <c r="A42" s="50">
         <v>330101</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="50" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4638,8 +4620,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4651,8 +4633,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4664,8 +4646,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4677,10 +4659,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="60">
+      <c r="A46" s="55">
         <v>330204</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4706,8 +4688,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4760,10 +4742,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="48">
+      <c r="A49" s="50">
         <v>320104</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4778,7 +4760,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4792,8 +4774,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4806,7 +4788,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="48"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4882,10 +4864,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="60">
+      <c r="A53" s="55">
         <v>330403</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4914,8 +4896,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="68"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4942,8 +4924,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="68"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5188,10 +5170,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="54">
+      <c r="A63" s="57">
         <v>330206</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="52" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5220,8 +5202,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="55"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5248,8 +5230,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="55"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5436,10 +5418,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="60">
+      <c r="A71" s="55">
         <v>330204</v>
       </c>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5468,8 +5450,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5805,10 +5787,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="48">
+      <c r="A85" s="50">
         <v>330101</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5831,8 +5813,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="64"/>
-      <c r="B86" s="55"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5853,8 +5835,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="64"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5875,8 +5857,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5951,10 +5933,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65">
+      <c r="A91" s="61">
         <v>330503</v>
       </c>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="57" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5977,8 +5959,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="66"/>
-      <c r="B92" s="55"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5999,8 +5981,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="66"/>
-      <c r="B93" s="55"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6021,8 +6003,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="66"/>
-      <c r="B94" s="55"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6043,10 +6025,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="54">
+      <c r="A95" s="57">
         <v>330506</v>
       </c>
-      <c r="B95" s="54" t="s">
+      <c r="B95" s="57" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6069,8 +6051,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6198,10 +6180,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="57">
+      <c r="A101" s="63">
         <v>330101</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6224,8 +6206,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6246,8 +6228,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6320,10 +6302,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="52">
+      <c r="A106" s="66">
         <v>320604</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="66" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6338,7 +6320,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="66" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6346,8 +6328,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6360,14 +6342,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="53"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6380,14 +6362,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="53"/>
+      <c r="G108" s="67"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="67"/>
-      <c r="B109" s="53"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6400,7 +6382,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="53"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6567,10 +6549,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="51" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6585,7 +6567,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="50" t="s">
+      <c r="G116" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6595,8 +6577,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="48"/>
-      <c r="B117" s="49"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6609,7 +6591,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="50"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -6818,13 +6800,13 @@
         <v>2</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="H125" s="70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>343</v>
+      </c>
+      <c r="H125" s="48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="1" customFormat="1">
       <c r="A126" s="1">
         <v>320401</v>
       </c>
@@ -6832,86 +6814,37 @@
         <v>339</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="F126" s="1">
         <v>32</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H126" s="70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1">
-        <v>320401</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="C127" s="41" t="s">
+      <c r="G126" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="H126" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="D127" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F127" s="1">
-        <v>32</v>
-      </c>
-      <c r="G127" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="H127" s="70" t="s">
-        <v>348</v>
-      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" s="1" customFormat="1">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -6928,6 +6861,40 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="5655" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2592" windowWidth="16440" windowHeight="7884" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="353">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2566,6 +2566,28 @@
   <si>
     <t>未处理</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_finace</t>
+  </si>
+  <si>
+    <t>APPLY_TIME_</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈烨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_entrepreneurship</t>
   </si>
 </sst>
 </file>
@@ -3002,69 +3024,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3434,44 +3456,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="C126" sqref="A126:XFD126"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="46.8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3539,10 +3561,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3557,7 +3579,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3571,8 +3593,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3585,7 +3607,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3597,10 +3619,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3615,7 +3637,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3629,8 +3651,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3643,7 +3665,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3655,10 +3677,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3673,7 +3695,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3687,8 +3709,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3701,7 +3723,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3832,10 +3854,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>320601</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3850,7 +3872,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3864,8 +3886,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3878,7 +3900,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3922,10 +3944,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>340101</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3940,7 +3962,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3954,8 +3976,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="54"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +3990,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3980,10 +4002,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55">
+      <c r="A19" s="61">
         <v>330403</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4012,8 +4034,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="56"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4040,8 +4062,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="56"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4257,10 +4279,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>330801</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4275,7 +4297,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4289,8 +4311,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4303,7 +4325,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4333,7 +4355,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4363,7 +4385,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4375,10 +4397,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>320103</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4393,7 +4415,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4405,8 +4427,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4419,7 +4441,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4603,10 +4625,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="50">
+      <c r="A42" s="49">
         <v>330101</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4620,8 +4642,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4633,8 +4655,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4646,8 +4668,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4659,10 +4681,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="55">
+      <c r="A46" s="61">
         <v>330204</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4688,8 +4710,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4742,10 +4764,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="50">
+      <c r="A49" s="49">
         <v>320104</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4760,7 +4782,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4774,8 +4796,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4788,7 +4810,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4864,10 +4886,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55">
+      <c r="A53" s="61">
         <v>330403</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4896,8 +4918,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="56"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4924,8 +4946,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="56"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5170,10 +5192,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="57">
+      <c r="A63" s="55">
         <v>330206</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="62" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5202,8 +5224,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="58"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5230,8 +5252,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="58"/>
-      <c r="B65" s="70"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5418,10 +5440,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="55">
+      <c r="A71" s="61">
         <v>330204</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5450,8 +5472,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5787,10 +5809,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>330101</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="55" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5813,8 +5835,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="59"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5835,8 +5857,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="59"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5857,8 +5879,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5933,10 +5955,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="61">
+      <c r="A91" s="66">
         <v>330503</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="55" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5959,8 +5981,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="62"/>
-      <c r="B92" s="58"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5981,8 +6003,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="62"/>
-      <c r="B93" s="58"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6003,8 +6025,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="62"/>
-      <c r="B94" s="58"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6025,10 +6047,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="57">
+      <c r="A95" s="55">
         <v>330506</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="55" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6051,8 +6073,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6180,10 +6202,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="63">
+      <c r="A101" s="58">
         <v>330101</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6206,8 +6228,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6228,8 +6250,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6302,10 +6324,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="66">
+      <c r="A106" s="53">
         <v>320604</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="53" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6320,7 +6342,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="66" t="s">
+      <c r="G106" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6328,8 +6350,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6342,14 +6364,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="67"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6362,14 +6384,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="67"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="68"/>
-      <c r="B109" s="67"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6382,7 +6404,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="67"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6549,10 +6571,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="50" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6567,7 +6589,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="53" t="s">
+      <c r="G116" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6577,8 +6599,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="50"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="49"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6591,7 +6613,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="53"/>
+      <c r="G117" s="51"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -6836,15 +6858,148 @@
       <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="A127" s="1">
+        <v>340702</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="43" t="s">
+        <v>351</v>
+      </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="4"/>
     </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>330202</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>340703</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="C130" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="C131" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -6861,40 +7016,6 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2592" windowWidth="16440" windowHeight="7884" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2595" windowWidth="16440" windowHeight="7890" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="358">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2588,6 +2587,49 @@
   </si>
   <si>
     <t>sp_entrepreneurship</t>
+  </si>
+  <si>
+    <t>sp_enterprise_invitation</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NVITATION_STATUS_</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nteger</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱玉良</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3024,69 +3066,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3456,44 +3498,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.09765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3561,10 +3603,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3579,7 +3621,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3593,8 +3635,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3607,7 +3649,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3619,10 +3661,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3637,7 +3679,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3651,8 +3693,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3665,7 +3707,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3677,10 +3719,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3695,7 +3737,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3709,8 +3751,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="49"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3723,7 +3765,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3854,10 +3896,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="49">
+      <c r="A14" s="50">
         <v>320601</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3872,7 +3914,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3886,8 +3928,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3900,7 +3942,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3944,10 +3986,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>340101</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3962,7 +4004,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3976,8 +4018,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="52"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3990,7 +4032,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4002,10 +4044,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="61">
+      <c r="A19" s="55">
         <v>330403</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4034,8 +4076,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4062,8 +4104,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4279,10 +4321,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <v>330801</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4297,7 +4339,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4311,8 +4353,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4325,7 +4367,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4355,7 +4397,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4385,7 +4427,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4397,10 +4439,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="49">
+      <c r="A32" s="50">
         <v>320103</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4415,7 +4457,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4427,8 +4469,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4441,7 +4483,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4625,10 +4667,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="49">
+      <c r="A42" s="50">
         <v>330101</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="50" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4642,8 +4684,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4655,8 +4697,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4668,8 +4710,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4681,10 +4723,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61">
+      <c r="A46" s="55">
         <v>330204</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4710,8 +4752,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4764,10 +4806,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="49">
+      <c r="A49" s="50">
         <v>320104</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4782,7 +4824,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4796,8 +4838,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4810,7 +4852,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4886,10 +4928,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61">
+      <c r="A53" s="55">
         <v>330403</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4918,8 +4960,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="69"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4946,8 +4988,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="69"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5192,10 +5234,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="55">
+      <c r="A63" s="57">
         <v>330206</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="52" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5224,8 +5266,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="56"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5252,8 +5294,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="56"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5440,10 +5482,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="61">
+      <c r="A71" s="55">
         <v>330204</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5472,8 +5514,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5809,10 +5851,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="49">
+      <c r="A85" s="50">
         <v>330101</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5835,8 +5877,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5857,8 +5899,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
-      <c r="B87" s="56"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5879,8 +5921,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5955,10 +5997,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="66">
+      <c r="A91" s="61">
         <v>330503</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="57" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5981,8 +6023,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="67"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -6003,8 +6045,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="67"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6025,8 +6067,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="67"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6047,10 +6089,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="55">
+      <c r="A95" s="57">
         <v>330506</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="57" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6073,8 +6115,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6202,10 +6244,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="58">
+      <c r="A101" s="63">
         <v>330101</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6228,8 +6270,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6250,8 +6292,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="60"/>
-      <c r="B103" s="60"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6324,10 +6366,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="53">
+      <c r="A106" s="66">
         <v>320604</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="66" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6342,7 +6384,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="53" t="s">
+      <c r="G106" s="66" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6350,8 +6392,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6364,14 +6406,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="54"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6384,14 +6426,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="54"/>
+      <c r="G108" s="67"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="68"/>
-      <c r="B109" s="54"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6404,7 +6446,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="54"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6571,10 +6613,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="51" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6589,7 +6631,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="51" t="s">
+      <c r="G116" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6599,8 +6641,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="49"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6613,7 +6655,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="51"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -6828,7 +6870,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="1" customFormat="1">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>320401</v>
       </c>
@@ -6853,11 +6895,8 @@
       <c r="H126" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>340702</v>
       </c>
@@ -6879,10 +6918,6 @@
       <c r="G127" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
@@ -6964,42 +6999,28 @@
         <v>351</v>
       </c>
     </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>330402</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G132" s="43" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -7016,6 +7037,40 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2595" windowWidth="16440" windowHeight="7890" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19320" windowHeight="5805" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="364">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2629,6 +2630,41 @@
   </si>
   <si>
     <t>朱玉良</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_ticket_passenger</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICKET_NUM</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>票号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>林伟泽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE sp_ticket_passenger ADD COLUMN ticket_num VARCHAR(32);</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3066,69 +3102,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3498,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="D129" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -3521,18 +3557,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="45">
@@ -3603,10 +3639,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3621,7 +3657,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3635,8 +3671,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3649,7 +3685,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3661,10 +3697,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3679,7 +3715,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3693,8 +3729,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3707,7 +3743,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3719,10 +3755,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3737,7 +3773,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3751,8 +3787,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3765,7 +3801,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3896,10 +3932,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>320601</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3914,7 +3950,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3928,8 +3964,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3942,7 +3978,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3986,10 +4022,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>340101</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4004,7 +4040,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -4018,8 +4054,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="54"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -4032,7 +4068,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4044,10 +4080,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55">
+      <c r="A19" s="61">
         <v>330403</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4076,8 +4112,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="56"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4104,8 +4140,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="56"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4321,10 +4357,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>330801</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4339,7 +4375,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4353,8 +4389,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4367,7 +4403,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4397,7 +4433,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4427,7 +4463,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4439,10 +4475,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>320103</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4457,7 +4493,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4469,8 +4505,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4483,7 +4519,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4667,10 +4703,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="50">
+      <c r="A42" s="49">
         <v>330101</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4684,8 +4720,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4697,8 +4733,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4710,8 +4746,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4723,10 +4759,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="55">
+      <c r="A46" s="61">
         <v>330204</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4752,8 +4788,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4806,10 +4842,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="50">
+      <c r="A49" s="49">
         <v>320104</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4824,7 +4860,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4838,8 +4874,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4852,7 +4888,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4928,10 +4964,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55">
+      <c r="A53" s="61">
         <v>330403</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4960,8 +4996,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="56"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -4988,8 +5024,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="56"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5234,10 +5270,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="57">
+      <c r="A63" s="55">
         <v>330206</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="62" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5266,8 +5302,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="58"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5294,8 +5330,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="58"/>
-      <c r="B65" s="70"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5482,10 +5518,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="55">
+      <c r="A71" s="61">
         <v>330204</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5514,8 +5550,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5851,10 +5887,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>330101</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="55" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5877,8 +5913,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="59"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5899,8 +5935,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="59"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5921,8 +5957,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5997,10 +6033,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="61">
+      <c r="A91" s="66">
         <v>330503</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="55" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -6023,8 +6059,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="62"/>
-      <c r="B92" s="58"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -6045,8 +6081,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="62"/>
-      <c r="B93" s="58"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6067,8 +6103,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="62"/>
-      <c r="B94" s="58"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6089,10 +6125,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="57">
+      <c r="A95" s="55">
         <v>330506</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="55" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6115,8 +6151,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6244,10 +6280,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="63">
+      <c r="A101" s="58">
         <v>330101</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6270,8 +6306,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6292,8 +6328,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6366,10 +6402,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="66">
+      <c r="A106" s="53">
         <v>320604</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="53" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6384,7 +6420,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="66" t="s">
+      <c r="G106" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6392,8 +6428,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6406,14 +6442,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="67"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6426,14 +6462,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="67"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="68"/>
-      <c r="B109" s="67"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6446,7 +6482,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="67"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6613,10 +6649,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="50" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6631,7 +6667,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="53" t="s">
+      <c r="G116" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6641,8 +6677,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="50"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="49"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6655,7 +6691,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="53"/>
+      <c r="G117" s="51"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -6942,7 +6978,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>340703</v>
       </c>
@@ -6965,7 +7001,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:11">
       <c r="C130" s="41" t="s">
         <v>348</v>
       </c>
@@ -6982,7 +7018,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:11">
       <c r="C131" s="41" t="s">
         <v>348</v>
       </c>
@@ -6999,7 +7035,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>330402</v>
       </c>
@@ -7019,8 +7055,68 @@
         <v>357</v>
       </c>
     </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>340505</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="E133" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F133" s="1">
+        <v>32</v>
+      </c>
+      <c r="G133" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K133" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -7037,40 +7133,6 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="370">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2665,6 +2665,42 @@
   </si>
   <si>
     <t>ALTER TABLE sp_ticket_passenger ADD COLUMN ticket_num VARCHAR(32);</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_ticket_order</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OTE</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>林伟泽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE sp_ticket_order ADD COLUMN note VARCHAR(256);</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3102,69 +3138,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3534,10 +3570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D129" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134"/>
+    <sheetView tabSelected="1" topLeftCell="H125" workbookViewId="0">
+      <selection activeCell="T135" sqref="T135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -3557,18 +3593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="45">
@@ -3639,10 +3675,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3657,7 +3693,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3671,8 +3707,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3685,7 +3721,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3697,10 +3733,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3715,7 +3751,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3729,8 +3765,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3779,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3755,10 +3791,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3773,7 +3809,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3787,8 +3823,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="49"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3801,7 +3837,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3932,10 +3968,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="49">
+      <c r="A14" s="50">
         <v>320601</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3950,7 +3986,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3964,8 +4000,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3978,7 +4014,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -4022,10 +4058,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>340101</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4040,7 +4076,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -4054,8 +4090,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="52"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -4068,7 +4104,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4080,10 +4116,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="61">
+      <c r="A19" s="55">
         <v>330403</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4112,8 +4148,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4140,8 +4176,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4357,10 +4393,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <v>330801</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4375,7 +4411,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4389,8 +4425,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4403,7 +4439,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4433,7 +4469,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4463,7 +4499,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4475,10 +4511,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="49">
+      <c r="A32" s="50">
         <v>320103</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="50" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4493,7 +4529,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4505,8 +4541,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4519,7 +4555,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4703,10 +4739,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="49">
+      <c r="A42" s="50">
         <v>330101</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="50" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4720,8 +4756,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4733,8 +4769,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4746,8 +4782,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4759,10 +4795,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61">
+      <c r="A46" s="55">
         <v>330204</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4788,8 +4824,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4842,10 +4878,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="49">
+      <c r="A49" s="50">
         <v>320104</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4860,7 +4896,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="50" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4874,8 +4910,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4888,7 +4924,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -4964,10 +5000,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61">
+      <c r="A53" s="55">
         <v>330403</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4996,8 +5032,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="69"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -5024,8 +5060,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="69"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5270,10 +5306,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="55">
+      <c r="A63" s="57">
         <v>330206</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="52" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5302,8 +5338,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="56"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5330,8 +5366,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="56"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5518,10 +5554,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="61">
+      <c r="A71" s="55">
         <v>330204</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5550,8 +5586,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5887,10 +5923,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="49">
+      <c r="A85" s="50">
         <v>330101</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5913,8 +5949,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5935,8 +5971,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
-      <c r="B87" s="56"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5957,8 +5993,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -6033,10 +6069,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="66">
+      <c r="A91" s="61">
         <v>330503</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="57" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -6059,8 +6095,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="67"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -6081,8 +6117,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="67"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6103,8 +6139,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="67"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6125,10 +6161,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="55">
+      <c r="A95" s="57">
         <v>330506</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="57" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6151,8 +6187,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6280,10 +6316,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="58">
+      <c r="A101" s="63">
         <v>330101</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6306,8 +6342,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6328,8 +6364,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="60"/>
-      <c r="B103" s="60"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6402,10 +6438,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="53">
+      <c r="A106" s="66">
         <v>320604</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="66" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6420,7 +6456,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="53" t="s">
+      <c r="G106" s="66" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6428,8 +6464,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6442,14 +6478,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="54"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6462,14 +6498,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="54"/>
+      <c r="G108" s="67"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="68"/>
-      <c r="B109" s="54"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6482,7 +6518,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="54"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6649,10 +6685,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="51" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6667,7 +6703,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="51" t="s">
+      <c r="G116" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6677,8 +6713,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="49"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6691,7 +6727,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="51"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -7081,42 +7117,34 @@
         <v>363</v>
       </c>
     </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>340501</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E134" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="F134" s="1">
+        <v>256</v>
+      </c>
+      <c r="G134" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K134" s="42" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -7133,6 +7161,40 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
+++ b/psaqh/trunk/src/smartPark/doc/表结构修改申请记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="19320" windowHeight="5805" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2592" windowWidth="16524" windowHeight="4272" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构修改申请" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="376">
   <si>
     <t>表结构修改申请</t>
   </si>
@@ -2701,6 +2701,29 @@
   </si>
   <si>
     <t>ALTER TABLE sp_ticket_order ADD COLUMN note VARCHAR(256);</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_mc_msgdatas_</t>
+  </si>
+  <si>
+    <t>READ_STATUS_</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈烨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2708,7 +2731,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2721,6 +2744,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2728,6 +2752,7 @@
       <sz val="14"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2735,18 +2760,21 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2754,12 +2782,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2799,21 +2829,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3138,69 +3153,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -3570,44 +3585,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H125" workbookViewId="0">
-      <selection activeCell="T135" sqref="T135"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="46.8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3675,10 +3690,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3693,7 +3708,7 @@
       <c r="F4" s="16">
         <v>20</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3707,8 +3722,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3721,7 +3736,7 @@
       <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
@@ -3733,10 +3748,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -3751,7 +3766,7 @@
       <c r="F6" s="16">
         <v>36</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -3765,8 +3780,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3779,7 +3794,7 @@
       <c r="F7" s="1">
         <v>36</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3791,10 +3806,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3809,7 +3824,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -3823,8 +3838,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -3837,7 +3852,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3968,10 +3983,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>320601</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3986,7 +4001,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -4000,8 +4015,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
@@ -4014,7 +4029,7 @@
       <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
@@ -4058,10 +4073,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>340101</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4076,7 +4091,7 @@
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -4090,8 +4105,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="54"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -4104,7 +4119,7 @@
       <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4116,10 +4131,10 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55">
+      <c r="A19" s="61">
         <v>330403</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4148,8 +4163,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="56"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4176,8 +4191,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="56"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4393,10 +4408,10 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>330801</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4411,7 +4426,7 @@
       <c r="F28" s="1">
         <v>36</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -4425,8 +4440,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
@@ -4439,7 +4454,7 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4469,7 +4484,7 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4499,7 +4514,7 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4511,10 +4526,10 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>320103</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4529,7 +4544,7 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4541,8 +4556,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -4555,7 +4570,7 @@
       <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
@@ -4739,10 +4754,10 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="50">
+      <c r="A42" s="49">
         <v>330101</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4756,8 +4771,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
@@ -4769,8 +4784,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
@@ -4782,8 +4797,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4795,10 +4810,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="55">
+      <c r="A46" s="61">
         <v>330204</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4824,8 +4839,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4878,10 +4893,10 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="50">
+      <c r="A49" s="49">
         <v>320104</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4896,7 +4911,7 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -4910,8 +4925,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4924,7 +4939,7 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
@@ -5000,10 +5015,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55">
+      <c r="A53" s="61">
         <v>330403</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="62" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -5032,8 +5047,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="56"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
@@ -5060,8 +5075,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="56"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="2" t="s">
         <v>163</v>
       </c>
@@ -5306,10 +5321,10 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="57">
+      <c r="A63" s="55">
         <v>330206</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="62" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5338,8 +5353,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="58"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2" t="s">
         <v>185</v>
       </c>
@@ -5366,8 +5381,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="58"/>
-      <c r="B65" s="70"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2" t="s">
         <v>187</v>
       </c>
@@ -5554,10 +5569,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="55">
+      <c r="A71" s="61">
         <v>330204</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5586,8 +5601,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
@@ -5923,10 +5938,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>330101</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="55" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5949,8 +5964,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="59"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="2" t="s">
         <v>231</v>
       </c>
@@ -5971,8 +5986,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="59"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5993,8 +6008,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
@@ -6069,10 +6084,10 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="61">
+      <c r="A91" s="66">
         <v>330503</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="55" t="s">
         <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -6095,8 +6110,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="62"/>
-      <c r="B92" s="58"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="2" t="s">
         <v>242</v>
       </c>
@@ -6117,8 +6132,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="62"/>
-      <c r="B93" s="58"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="2" t="s">
         <v>244</v>
       </c>
@@ -6139,8 +6154,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="62"/>
-      <c r="B94" s="58"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="2" t="s">
         <v>246</v>
       </c>
@@ -6161,10 +6176,10 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="57">
+      <c r="A95" s="55">
         <v>330506</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="55" t="s">
         <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6187,8 +6202,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -6316,10 +6331,10 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="63">
+      <c r="A101" s="58">
         <v>330101</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -6342,8 +6357,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6364,8 +6379,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
@@ -6438,10 +6453,10 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="66">
+      <c r="A106" s="53">
         <v>320604</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="53" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6456,7 +6471,7 @@
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="66" t="s">
+      <c r="G106" s="53" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="31" t="s">
@@ -6464,8 +6479,8 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="2" t="s">
         <v>283</v>
       </c>
@@ -6478,14 +6493,14 @@
       <c r="F107" s="1">
         <v>20</v>
       </c>
-      <c r="G107" s="67"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
@@ -6498,14 +6513,14 @@
       <c r="F108" s="1">
         <v>20</v>
       </c>
-      <c r="G108" s="67"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="68"/>
-      <c r="B109" s="67"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
@@ -6518,7 +6533,7 @@
       <c r="F109" s="1">
         <v>20</v>
       </c>
-      <c r="G109" s="67"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="31" t="s">
         <v>300</v>
       </c>
@@ -6685,10 +6700,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="50" t="s">
         <v>315</v>
       </c>
       <c r="C116" s="46" t="s">
@@ -6703,7 +6718,7 @@
       <c r="F116" s="16">
         <v>32</v>
       </c>
-      <c r="G116" s="53" t="s">
+      <c r="G116" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="47" t="s">
@@ -6713,8 +6728,8 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="50"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="49"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="45" t="s">
         <v>308</v>
       </c>
@@ -6727,7 +6742,7 @@
       <c r="F117" s="16">
         <v>32</v>
       </c>
-      <c r="G117" s="53"/>
+      <c r="G117" s="51"/>
       <c r="H117" s="47" t="s">
         <v>296</v>
       </c>
@@ -7143,8 +7158,74 @@
         <v>369</v>
       </c>
     </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>320203</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F135" s="1">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5.17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="G116:G117"/>
@@ -7161,40 +7242,6 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
